--- a/api/data/RebatePercentage.xlsx
+++ b/api/data/RebatePercentage.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E229"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,7 +407,7 @@
         <v>RebateType</v>
       </c>
       <c r="B1" t="str">
-        <v>Rebate</v>
+        <v>IncomeTier</v>
       </c>
       <c r="C1" t="str">
         <v>DateOn</v>
@@ -415,52 +415,3889 @@
       <c r="D1" t="str">
         <v>DateOff</v>
       </c>
+      <c r="E1" t="str">
+        <v>Rebate</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>TIER1</v>
+        <v>RB</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C2" t="str">
         <v>2023-01-01</v>
       </c>
       <c r="D2" t="str">
         <v>2099-12-31</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>TIER2</v>
+        <v>RB</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C3" t="str">
         <v>2023-01-01</v>
       </c>
       <c r="D3" t="str">
         <v>2099-12-31</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>TIER3</v>
+        <v>RB</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E4">
+        <v>29.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>RB</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D5" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E5">
+        <v>29.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>RB</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D6" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E6">
+        <v>27.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>RB</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E7">
+        <v>26.791</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>RB</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E8">
+        <v>25.934</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>RB</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E9">
+        <v>25.415</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>RB</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D10" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E10">
+        <v>25.059</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>RB</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D11" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E11">
+        <v>25.059</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>RB</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D12" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E12">
+        <v>24.608</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>RB</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D13" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E13">
+        <v>24.608</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>RB</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D14" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E14">
+        <v>24.608</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>RB</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D15" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E15">
+        <v>24.608</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>RB</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D16" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E16">
+        <v>24.608</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>RB</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D17" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E17">
+        <v>24.608</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>RB</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D18" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E18">
+        <v>24.608</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>RB</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D19" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E19">
+        <v>24.608</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>RF</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D20" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>RF</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D21" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>RF</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D22" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E22">
+        <v>19.36</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>RF</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D23" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E23">
+        <v>19.36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>RF</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D24" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E24">
+        <v>18.547</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>RF</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D25" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E25">
+        <v>17.861</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>RF</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D26" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E26">
+        <v>17.289</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>RF</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D27" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E27">
+        <v>16.943</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>RF</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D28" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E28">
+        <v>16.706</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>RF</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D29" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E29">
+        <v>16.706</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>RF</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D30" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E30">
+        <v>16.405</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>RF</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D31" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E31">
+        <v>16.405</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>RF</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D32" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E32">
+        <v>16.405</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>RF</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D33" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E33">
+        <v>16.405</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>RF</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D34" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E34">
+        <v>16.405</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>RF</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D35" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E35">
+        <v>16.405</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>RF</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D36" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E36">
+        <v>16.405</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>RF</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D37" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E37">
+        <v>16.405</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>RI</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D38" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>RI</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D39" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>RI</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D40" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E40">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>RI</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D41" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E41">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>RI</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D42" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E42">
+        <v>9.273</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>RI</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D43" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E43">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>RI</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D44" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E44">
+        <v>8.644</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>RI</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D45" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E45">
+        <v>8.471</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>RI</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D46" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E46">
+        <v>8.352</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>RI</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D47" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E47">
+        <v>8.352</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>RI</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D48" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E48">
+        <v>8.202</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>RI</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D49" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E49">
+        <v>8.202</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>RI</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D50" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E50">
+        <v>8.202</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>RI</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D51" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E51">
+        <v>8.202</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>RI</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D52" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E52">
+        <v>8.202</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>RI</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D53" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E53">
+        <v>8.202</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>RI</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D54" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E54">
+        <v>8.202</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>RI</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D55" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E55">
+        <v>8.202</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>RL</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D56" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>RL</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D57" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>RL</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D58" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>RL</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D59" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>RL</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D60" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>RL</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D61" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>RL</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D62" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>RL</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D63" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>RL</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D64" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>RL</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D65" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>RL</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D66" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>RL</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D67" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>RL</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D68" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>RL</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D69" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>RL</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D70" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>RL</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D71" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>RL</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D72" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>RL</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D73" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>RD</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D74" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E74">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>RD</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D75" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E75">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>RD</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D76" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E76">
+        <v>33.88</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>RD</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D77" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E77">
+        <v>33.88</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>RD</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D78" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E78">
+        <v>32.457</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>RD</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D79" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E79">
+        <v>31.256</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>RD</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D80" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E80">
+        <v>30.256</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>RD</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D81" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E81">
+        <v>29.651</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>RD</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D82" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E82">
+        <v>29.236</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>RD</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D83" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E83">
+        <v>29.236</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>RD</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D84" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E84">
+        <v>28.71</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>RD</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D85" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E85">
+        <v>28.71</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>RD</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D86" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E86">
+        <v>28.71</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>RD</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D87" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E87">
+        <v>28.71</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>RD</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D88" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E88">
+        <v>28.71</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>RD</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D89" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E89">
+        <v>28.71</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>RD</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D90" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E90">
+        <v>28.71</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>RD</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D91" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E91">
+        <v>28.71</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>RG</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D92" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E92">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>RG</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D93" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E93">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>RG</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D94" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E94">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>RG</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D95" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E95">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>RG</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D96" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E96">
+        <v>23.184</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>RG</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D97" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E97">
+        <v>22.326</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>RG</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D98" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E98">
+        <v>21.612</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>RG</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D99" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E99">
+        <v>21.18</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>RG</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D100" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E100">
+        <v>20.883</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>RG</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D101" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E101">
+        <v>20.883</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>RG</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D102" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E102">
+        <v>20.507</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>RG</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D103" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E103">
+        <v>20.507</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>RG</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D104" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E104">
+        <v>20.507</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>RG</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D105" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E105">
+        <v>20.507</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>RG</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D106" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E106">
+        <v>20.507</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>RG</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D107" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E107">
+        <v>20.507</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>RG</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D108" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E108">
+        <v>20.507</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>RG</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D109" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E109">
+        <v>20.507</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>RJ</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D110" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E110">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>RJ</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D111" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E111">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>RJ</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D112" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E112">
+        <v>14.52</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>RJ</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D113" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E113">
+        <v>14.52</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>RJ</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D114" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E114">
+        <v>13.91</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>RJ</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D115" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E115">
+        <v>13.395</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>RJ</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D116" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E116">
+        <v>12.966</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>RJ</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D117" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E117">
+        <v>12.707</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>RJ</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D118" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E118">
+        <v>12.529</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>RJ</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D119" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E119">
+        <v>12.529</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>RJ</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D120" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E120">
+        <v>12.303</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>RJ</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D121" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E121">
+        <v>12.303</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>RJ</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D122" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E122">
+        <v>12.303</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>RJ</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D123" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E123">
+        <v>12.303</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>RJ</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D124" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E124">
+        <v>12.303</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>RJ</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D125" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E125">
+        <v>12.303</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>RJ</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D126" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E126">
+        <v>12.303</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>RJ</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D127" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E127">
+        <v>12.303</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>RM</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D128" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>RM</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D129" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>RM</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D130" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>RM</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D131" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>RM</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D132" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>RM</v>
+      </c>
+      <c r="B133">
+        <v>3</v>
+      </c>
+      <c r="C133" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D133" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>RM</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D134" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>RM</v>
+      </c>
+      <c r="B135">
+        <v>3</v>
+      </c>
+      <c r="C135" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D135" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>RM</v>
+      </c>
+      <c r="B136">
+        <v>3</v>
+      </c>
+      <c r="C136" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D136" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>RM</v>
+      </c>
+      <c r="B137">
+        <v>3</v>
+      </c>
+      <c r="C137" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D137" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>RM</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D138" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>RM</v>
+      </c>
+      <c r="B139">
+        <v>3</v>
+      </c>
+      <c r="C139" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D139" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>RM</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="C140" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D140" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>RM</v>
+      </c>
+      <c r="B141">
+        <v>3</v>
+      </c>
+      <c r="C141" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D141" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>RM</v>
+      </c>
+      <c r="B142">
+        <v>3</v>
+      </c>
+      <c r="C142" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D142" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>RM</v>
+      </c>
+      <c r="B143">
+        <v>3</v>
+      </c>
+      <c r="C143" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D143" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>RM</v>
+      </c>
+      <c r="B144">
+        <v>3</v>
+      </c>
+      <c r="C144" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D144" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>RM</v>
+      </c>
+      <c r="B145">
+        <v>3</v>
+      </c>
+      <c r="C145" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D145" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>RE</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D146" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E146">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>RE</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D147" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E147">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>RE</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D148" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E148">
+        <v>38.72</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>RE</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D149" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E149">
+        <v>38.72</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>RE</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D150" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E150">
+        <v>37.094</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>RE</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D151" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E151">
+        <v>35.722</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>RE</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D152" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E152">
+        <v>34.579</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>RE</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D153" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E153">
+        <v>33.887</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>RE</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D154" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E154">
+        <v>33.413</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>RE</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D155" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E155">
+        <v>33.413</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>RE</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D156" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E156">
+        <v>32.812</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>RE</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D157" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E157">
+        <v>32.812</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>RE</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D158" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E158">
+        <v>32.812</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>RE</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D159" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E159">
+        <v>32.812</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>RE</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D160" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E160">
+        <v>32.812</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>RE</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D161" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E161">
+        <v>32.812</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>RE</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D162" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E162">
+        <v>32.812</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>RE</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D163" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E163">
+        <v>32.812</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>RH</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D164" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E164">
         <v>30</v>
       </c>
-      <c r="C4" t="str">
-        <v>2023-01-01</v>
-      </c>
-      <c r="D4" t="str">
-        <v>2099-12-31</v>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>RH</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D165" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E165">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>RH</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D166" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E166">
+        <v>29.04</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>RH</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D167" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E167">
+        <v>29.04</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>RH</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D168" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E168">
+        <v>27.82</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>RH</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D169" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E169">
+        <v>26.791</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>RH</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D170" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E170">
+        <v>25.934</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>RH</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D171" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E171">
+        <v>25.415</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>RH</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D172" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E172">
+        <v>25.059</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>RH</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D173" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E173">
+        <v>25.059</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>RH</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D174" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E174">
+        <v>24.608</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>RH</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D175" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E175">
+        <v>24.608</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>RH</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D176" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E176">
+        <v>24.608</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>RH</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D177" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E177">
+        <v>24.608</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>RH</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D178" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E178">
+        <v>24.608</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>RH</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D179" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E179">
+        <v>24.608</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>RH</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D180" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E180">
+        <v>24.608</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>RH</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D181" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E181">
+        <v>24.608</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>RK</v>
+      </c>
+      <c r="B182">
+        <v>2</v>
+      </c>
+      <c r="C182" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D182" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E182">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>RK</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+      <c r="C183" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D183" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E183">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>RK</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="C184" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D184" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E184">
+        <v>19.36</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>RK</v>
+      </c>
+      <c r="B185">
+        <v>2</v>
+      </c>
+      <c r="C185" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D185" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E185">
+        <v>19.36</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>RK</v>
+      </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="C186" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D186" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E186">
+        <v>18.547</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>RK</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D187" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E187">
+        <v>17.861</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>RK</v>
+      </c>
+      <c r="B188">
+        <v>2</v>
+      </c>
+      <c r="C188" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D188" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E188">
+        <v>17.289</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>RK</v>
+      </c>
+      <c r="B189">
+        <v>2</v>
+      </c>
+      <c r="C189" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D189" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E189">
+        <v>16.943</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>RK</v>
+      </c>
+      <c r="B190">
+        <v>2</v>
+      </c>
+      <c r="C190" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D190" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E190">
+        <v>16.706</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>RK</v>
+      </c>
+      <c r="B191">
+        <v>2</v>
+      </c>
+      <c r="C191" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D191" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E191">
+        <v>16.706</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>RK</v>
+      </c>
+      <c r="B192">
+        <v>2</v>
+      </c>
+      <c r="C192" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D192" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E192">
+        <v>16.405</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>RK</v>
+      </c>
+      <c r="B193">
+        <v>2</v>
+      </c>
+      <c r="C193" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D193" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E193">
+        <v>16.405</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>RK</v>
+      </c>
+      <c r="B194">
+        <v>2</v>
+      </c>
+      <c r="C194" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D194" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E194">
+        <v>16.405</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>RK</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="C195" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D195" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E195">
+        <v>16.405</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>RK</v>
+      </c>
+      <c r="B196">
+        <v>2</v>
+      </c>
+      <c r="C196" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D196" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E196">
+        <v>16.405</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>RK</v>
+      </c>
+      <c r="B197">
+        <v>2</v>
+      </c>
+      <c r="C197" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D197" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E197">
+        <v>16.405</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>RK</v>
+      </c>
+      <c r="B198">
+        <v>2</v>
+      </c>
+      <c r="C198" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D198" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E198">
+        <v>16.405</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>RK</v>
+      </c>
+      <c r="B199">
+        <v>2</v>
+      </c>
+      <c r="C199" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D199" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E199">
+        <v>16.405</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>RN</v>
+      </c>
+      <c r="B200">
+        <v>3</v>
+      </c>
+      <c r="C200" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D200" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>RN</v>
+      </c>
+      <c r="B201">
+        <v>3</v>
+      </c>
+      <c r="C201" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D201" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>RN</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
+      </c>
+      <c r="C202" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D202" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>RN</v>
+      </c>
+      <c r="B203">
+        <v>3</v>
+      </c>
+      <c r="C203" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D203" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>RN</v>
+      </c>
+      <c r="B204">
+        <v>3</v>
+      </c>
+      <c r="C204" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D204" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>RN</v>
+      </c>
+      <c r="B205">
+        <v>3</v>
+      </c>
+      <c r="C205" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D205" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>RN</v>
+      </c>
+      <c r="B206">
+        <v>3</v>
+      </c>
+      <c r="C206" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D206" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>RN</v>
+      </c>
+      <c r="B207">
+        <v>3</v>
+      </c>
+      <c r="C207" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D207" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>RN</v>
+      </c>
+      <c r="B208">
+        <v>3</v>
+      </c>
+      <c r="C208" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D208" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>RN</v>
+      </c>
+      <c r="B209">
+        <v>3</v>
+      </c>
+      <c r="C209" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D209" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>RN</v>
+      </c>
+      <c r="B210">
+        <v>3</v>
+      </c>
+      <c r="C210" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D210" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>RN</v>
+      </c>
+      <c r="B211">
+        <v>3</v>
+      </c>
+      <c r="C211" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D211" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>RN</v>
+      </c>
+      <c r="B212">
+        <v>3</v>
+      </c>
+      <c r="C212" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D212" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>RN</v>
+      </c>
+      <c r="B213">
+        <v>3</v>
+      </c>
+      <c r="C213" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D213" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>RN</v>
+      </c>
+      <c r="B214">
+        <v>3</v>
+      </c>
+      <c r="C214" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D214" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>RN</v>
+      </c>
+      <c r="B215">
+        <v>3</v>
+      </c>
+      <c r="C215" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D215" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>RN</v>
+      </c>
+      <c r="B216">
+        <v>3</v>
+      </c>
+      <c r="C216" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D216" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>RN</v>
+      </c>
+      <c r="B217">
+        <v>3</v>
+      </c>
+      <c r="C217" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D217" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>RB</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D218" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E218">
+        <v>24.288</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>RF</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D219" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E219">
+        <v>16.192</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>RI</v>
+      </c>
+      <c r="B220">
+        <v>2</v>
+      </c>
+      <c r="C220" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D220" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E220">
+        <v>8.095</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>RL</v>
+      </c>
+      <c r="B221">
+        <v>3</v>
+      </c>
+      <c r="C221" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D221" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>RD</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D222" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E222">
+        <v>28.337</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>RG</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D223" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E223">
+        <v>20.24</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>RJ</v>
+      </c>
+      <c r="B224">
+        <v>2</v>
+      </c>
+      <c r="C224" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D224" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E224">
+        <v>12.143</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>RM</v>
+      </c>
+      <c r="B225">
+        <v>3</v>
+      </c>
+      <c r="C225" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D225" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>RE</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D226" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E226">
+        <v>32.385</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>RH</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D227" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E227">
+        <v>24.288</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>RK</v>
+      </c>
+      <c r="B228">
+        <v>2</v>
+      </c>
+      <c r="C228" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D228" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E228">
+        <v>16.192</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>RN</v>
+      </c>
+      <c r="B229">
+        <v>3</v>
+      </c>
+      <c r="C229" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="D229" t="str">
+        <v>2099-12-31</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E229"/>
   </ignoredErrors>
 </worksheet>
 </file>